--- a/data/trans_bre/P23_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Clase-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 4,83</t>
+          <t>-8,72; 4,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 4,02</t>
+          <t>-9,89; 5,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,17; -0,07</t>
+          <t>-12,35; 0,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 16,21</t>
+          <t>-24,37; 17,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,71; 13,61</t>
+          <t>-25,76; 16,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,21; -0,32</t>
+          <t>-43,62; 1,0</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 6,0</t>
+          <t>-8,27; 5,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 8,04</t>
+          <t>-5,76; 9,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 5,42</t>
+          <t>-7,78; 5,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 18,56</t>
+          <t>-20,37; 18,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 24,0</t>
+          <t>-14,92; 28,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 21,05</t>
+          <t>-24,67; 21,15</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,33; -11,62</t>
+          <t>-27,47; -10,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,88; -3,98</t>
+          <t>-18,32; -4,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,66; -0,8</t>
+          <t>-18,01; -0,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-56,38; -25,26</t>
+          <t>-55,15; -24,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,43; -9,61</t>
+          <t>-40,09; -8,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,48; -2,11</t>
+          <t>-41,97; -1,86</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,84; -7,32</t>
+          <t>-16,26; -7,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,11; -0,96</t>
+          <t>-10,65; -1,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 4,69</t>
+          <t>-4,05; 4,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,66; -16,49</t>
+          <t>-34,64; -16,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,74; -2,31</t>
+          <t>-23,56; -3,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 13,12</t>
+          <t>-10,02; 13,44</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-27,99; -15,11</t>
+          <t>-28,16; -14,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,96; -8,52</t>
+          <t>-20,29; -9,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,82; -4,5</t>
+          <t>-14,78; -4,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-49,32; -30,49</t>
+          <t>-49,12; -30,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,75; -21,81</t>
+          <t>-43,77; -23,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-35,5; -13,04</t>
+          <t>-35,61; -12,17</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,3; -10,33</t>
+          <t>-22,24; -10,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,64; -3,53</t>
+          <t>-14,5; -3,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,41; -4,37</t>
+          <t>-15,2; -3,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-62,66; -42,74</t>
+          <t>-63,63; -43,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,82; -17,3</t>
+          <t>-51,67; -20,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,21; -19,85</t>
+          <t>-50,6; -17,57</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-19,17; -14,57</t>
+          <t>-19,2; -14,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,33; -9,75</t>
+          <t>-14,29; -9,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,93; -6,68</t>
+          <t>-11,2; -6,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-43,99; -35,45</t>
+          <t>-44,02; -35,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-35,24; -25,41</t>
+          <t>-35,1; -25,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-30,27; -19,7</t>
+          <t>-30,88; -19,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
